--- a/Financials/Yearly/BABA_YR_FIN.xlsx
+++ b/Financials/Yearly/BABA_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B58EC3-2306-41E8-AECF-F001D1B9BB78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BABA" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,34 +689,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -708,88 +743,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>36396200</v>
+        <v>37142000</v>
       </c>
       <c r="E8" s="3">
-        <v>23017600</v>
+        <v>23489300</v>
       </c>
       <c r="F8" s="3">
-        <v>14709200</v>
+        <v>15010600</v>
       </c>
       <c r="G8" s="3">
-        <v>11082300</v>
+        <v>11309400</v>
       </c>
       <c r="H8" s="3">
-        <v>7635700</v>
+        <v>7792100</v>
       </c>
       <c r="I8" s="3">
-        <v>5019800</v>
+        <v>5122700</v>
       </c>
       <c r="J8" s="3">
-        <v>2912200</v>
+        <v>2971900</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15450900</v>
+        <v>15767500</v>
       </c>
       <c r="E9" s="3">
-        <v>8526000</v>
+        <v>8700700</v>
       </c>
       <c r="F9" s="3">
-        <v>4996200</v>
+        <v>5098600</v>
       </c>
       <c r="G9" s="3">
-        <v>3466200</v>
+        <v>3537200</v>
       </c>
       <c r="H9" s="3">
-        <v>1944300</v>
+        <v>1984100</v>
       </c>
       <c r="I9" s="3">
-        <v>1413400</v>
+        <v>1442400</v>
       </c>
       <c r="J9" s="3">
-        <v>953100</v>
+        <v>972700</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20945300</v>
+        <v>21374500</v>
       </c>
       <c r="E10" s="3">
-        <v>14491700</v>
+        <v>14788600</v>
       </c>
       <c r="F10" s="3">
-        <v>9713000</v>
+        <v>9912000</v>
       </c>
       <c r="G10" s="3">
-        <v>7616200</v>
+        <v>7772200</v>
       </c>
       <c r="H10" s="3">
-        <v>5691400</v>
+        <v>5808000</v>
       </c>
       <c r="I10" s="3">
-        <v>3606400</v>
+        <v>3680300</v>
       </c>
       <c r="J10" s="3">
-        <v>1959100</v>
+        <v>1999200</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -802,34 +837,34 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3309100</v>
+        <v>3376900</v>
       </c>
       <c r="E12" s="3">
-        <v>2481000</v>
+        <v>2531900</v>
       </c>
       <c r="F12" s="3">
-        <v>2005200</v>
+        <v>2046300</v>
       </c>
       <c r="G12" s="3">
-        <v>1550000</v>
+        <v>1581800</v>
       </c>
       <c r="H12" s="3">
-        <v>740700</v>
+        <v>755900</v>
       </c>
       <c r="I12" s="3">
-        <v>545800</v>
+        <v>557000</v>
       </c>
       <c r="J12" s="3">
-        <v>421300</v>
+        <v>429900</v>
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,61 +891,61 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>443300</v>
+        <v>452400</v>
       </c>
       <c r="E14" s="3">
-        <v>433700</v>
+        <v>442600</v>
       </c>
       <c r="F14" s="3">
-        <v>197300</v>
+        <v>201400</v>
       </c>
       <c r="G14" s="3">
-        <v>86400</v>
+        <v>88200</v>
       </c>
       <c r="H14" s="3">
-        <v>23700</v>
+        <v>24200</v>
       </c>
       <c r="I14" s="3">
-        <v>568200</v>
+        <v>579800</v>
       </c>
       <c r="J14" s="3">
-        <v>30000</v>
+        <v>30600</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1035500</v>
+        <v>1056700</v>
       </c>
       <c r="E15" s="3">
-        <v>744900</v>
+        <v>760200</v>
       </c>
       <c r="F15" s="3">
-        <v>426300</v>
+        <v>435000</v>
       </c>
       <c r="G15" s="3">
-        <v>303800</v>
+        <v>310000</v>
       </c>
       <c r="H15" s="3">
-        <v>45800</v>
+        <v>46700</v>
       </c>
       <c r="I15" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="J15" s="3">
-        <v>22500</v>
+        <v>23000</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -920,61 +955,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>26570800</v>
+        <v>27115200</v>
       </c>
       <c r="E17" s="3">
-        <v>16338000</v>
+        <v>16672800</v>
       </c>
       <c r="F17" s="3">
-        <v>10608100</v>
+        <v>10825500</v>
       </c>
       <c r="G17" s="3">
-        <v>7778800</v>
+        <v>7938200</v>
       </c>
       <c r="H17" s="3">
-        <v>4028800</v>
+        <v>4111400</v>
       </c>
       <c r="I17" s="3">
-        <v>3491900</v>
+        <v>3563500</v>
       </c>
       <c r="J17" s="3">
-        <v>2193200</v>
+        <v>2238200</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>9825400</v>
+        <v>10026700</v>
       </c>
       <c r="E18" s="3">
-        <v>6679600</v>
+        <v>6816500</v>
       </c>
       <c r="F18" s="3">
-        <v>4101100</v>
+        <v>4185200</v>
       </c>
       <c r="G18" s="3">
-        <v>3303600</v>
+        <v>3371300</v>
       </c>
       <c r="H18" s="3">
-        <v>3606800</v>
+        <v>3680700</v>
       </c>
       <c r="I18" s="3">
-        <v>1527900</v>
+        <v>1559200</v>
       </c>
       <c r="J18" s="3">
-        <v>719000</v>
+        <v>733700</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -987,142 +1022,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>5294800</v>
+        <v>5403300</v>
       </c>
       <c r="E20" s="3">
-        <v>2438900</v>
+        <v>2488800</v>
       </c>
       <c r="F20" s="3">
-        <v>8029800</v>
+        <v>8194300</v>
       </c>
       <c r="G20" s="3">
-        <v>1797500</v>
+        <v>1834300</v>
       </c>
       <c r="H20" s="3">
-        <v>610200</v>
+        <v>622700</v>
       </c>
       <c r="I20" s="3">
-        <v>171300</v>
+        <v>174800</v>
       </c>
       <c r="J20" s="3">
-        <v>95400</v>
+        <v>97400</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>18332000</v>
+        <v>18703800</v>
       </c>
       <c r="E21" s="3">
-        <v>11203100</v>
+        <v>11430100</v>
       </c>
       <c r="F21" s="3">
-        <v>13158900</v>
+        <v>13427300</v>
       </c>
       <c r="G21" s="3">
-        <v>5757300</v>
+        <v>5874500</v>
       </c>
       <c r="H21" s="3">
-        <v>4458300</v>
+        <v>4549300</v>
       </c>
       <c r="I21" s="3">
-        <v>1835600</v>
+        <v>1873000</v>
       </c>
       <c r="J21" s="3">
-        <v>941300</v>
+        <v>960400</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>518600</v>
+        <v>529200</v>
       </c>
       <c r="E22" s="3">
-        <v>388400</v>
+        <v>396400</v>
       </c>
       <c r="F22" s="3">
-        <v>283000</v>
+        <v>288800</v>
       </c>
       <c r="G22" s="3">
-        <v>399900</v>
+        <v>408100</v>
       </c>
       <c r="H22" s="3">
-        <v>319200</v>
+        <v>325800</v>
       </c>
       <c r="I22" s="3">
-        <v>228600</v>
+        <v>233300</v>
       </c>
       <c r="J22" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>14601600</v>
+        <v>14900800</v>
       </c>
       <c r="E23" s="3">
-        <v>8730000</v>
+        <v>8908900</v>
       </c>
       <c r="F23" s="3">
-        <v>11847900</v>
+        <v>12090700</v>
       </c>
       <c r="G23" s="3">
-        <v>4701200</v>
+        <v>4797500</v>
       </c>
       <c r="H23" s="3">
-        <v>3897800</v>
+        <v>3977700</v>
       </c>
       <c r="I23" s="3">
-        <v>1470600</v>
+        <v>1500700</v>
       </c>
       <c r="J23" s="3">
-        <v>804500</v>
+        <v>821000</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2646700</v>
+        <v>2700900</v>
       </c>
       <c r="E24" s="3">
-        <v>2003400</v>
+        <v>2044500</v>
       </c>
       <c r="F24" s="3">
-        <v>1228700</v>
+        <v>1253900</v>
       </c>
       <c r="G24" s="3">
-        <v>933100</v>
+        <v>952200</v>
       </c>
       <c r="H24" s="3">
-        <v>464800</v>
+        <v>474300</v>
       </c>
       <c r="I24" s="3">
-        <v>211900</v>
+        <v>216200</v>
       </c>
       <c r="J24" s="3">
-        <v>122500</v>
+        <v>125000</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1149,61 +1184,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>11954900</v>
+        <v>12199900</v>
       </c>
       <c r="E26" s="3">
-        <v>6726600</v>
+        <v>6864400</v>
       </c>
       <c r="F26" s="3">
-        <v>10619200</v>
+        <v>10836700</v>
       </c>
       <c r="G26" s="3">
-        <v>3768100</v>
+        <v>3845300</v>
       </c>
       <c r="H26" s="3">
-        <v>3433000</v>
+        <v>3503400</v>
       </c>
       <c r="I26" s="3">
-        <v>1258700</v>
+        <v>1284500</v>
       </c>
       <c r="J26" s="3">
-        <v>682100</v>
+        <v>696000</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>9305300</v>
+        <v>9496000</v>
       </c>
       <c r="E27" s="3">
-        <v>6351700</v>
+        <v>6481800</v>
       </c>
       <c r="F27" s="3">
-        <v>10392400</v>
+        <v>10605400</v>
       </c>
       <c r="G27" s="3">
-        <v>3512000</v>
+        <v>3584000</v>
       </c>
       <c r="H27" s="3">
-        <v>3355900</v>
+        <v>3424700</v>
       </c>
       <c r="I27" s="3">
-        <v>1222200</v>
+        <v>1247200</v>
       </c>
       <c r="J27" s="3">
-        <v>614900</v>
+        <v>627500</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1230,7 +1265,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1257,7 +1292,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1284,7 +1319,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1311,61 +1346,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-5294800</v>
+        <v>-5403300</v>
       </c>
       <c r="E32" s="3">
-        <v>-2438900</v>
+        <v>-2488800</v>
       </c>
       <c r="F32" s="3">
-        <v>-8029800</v>
+        <v>-8194300</v>
       </c>
       <c r="G32" s="3">
-        <v>-1797500</v>
+        <v>-1834300</v>
       </c>
       <c r="H32" s="3">
-        <v>-610200</v>
+        <v>-622700</v>
       </c>
       <c r="I32" s="3">
-        <v>-171300</v>
+        <v>-174800</v>
       </c>
       <c r="J32" s="3">
-        <v>-95400</v>
+        <v>-97400</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>9305300</v>
+        <v>9496000</v>
       </c>
       <c r="E33" s="3">
-        <v>6351700</v>
+        <v>6481800</v>
       </c>
       <c r="F33" s="3">
-        <v>10392400</v>
+        <v>10605400</v>
       </c>
       <c r="G33" s="3">
-        <v>3512000</v>
+        <v>3584000</v>
       </c>
       <c r="H33" s="3">
-        <v>3355900</v>
+        <v>3424700</v>
       </c>
       <c r="I33" s="3">
-        <v>1222200</v>
+        <v>1247200</v>
       </c>
       <c r="J33" s="3">
-        <v>614900</v>
+        <v>627500</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1392,39 +1427,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>9305300</v>
+        <v>9496000</v>
       </c>
       <c r="E35" s="3">
-        <v>6351700</v>
+        <v>6481800</v>
       </c>
       <c r="F35" s="3">
-        <v>10392400</v>
+        <v>10605400</v>
       </c>
       <c r="G35" s="3">
-        <v>3512000</v>
+        <v>3584000</v>
       </c>
       <c r="H35" s="3">
-        <v>3355900</v>
+        <v>3424700</v>
       </c>
       <c r="I35" s="3">
-        <v>1222200</v>
+        <v>1247200</v>
       </c>
       <c r="J35" s="3">
-        <v>614900</v>
+        <v>627500</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1451,7 +1486,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1464,7 +1499,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1477,93 +1512,93 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>28985500</v>
+        <v>29579400</v>
       </c>
       <c r="E41" s="3">
-        <v>20903500</v>
+        <v>21331900</v>
       </c>
       <c r="F41" s="3">
-        <v>15534500</v>
+        <v>15852900</v>
       </c>
       <c r="G41" s="3">
-        <v>15734500</v>
+        <v>16056900</v>
       </c>
       <c r="H41" s="3">
-        <v>4805700</v>
+        <v>4904200</v>
       </c>
       <c r="I41" s="3">
-        <v>4420500</v>
+        <v>4511100</v>
       </c>
       <c r="J41" s="3">
-        <v>2451500</v>
+        <v>2501700</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1585300</v>
+        <v>1617800</v>
       </c>
       <c r="E42" s="3">
-        <v>1027500</v>
+        <v>1048500</v>
       </c>
       <c r="F42" s="3">
-        <v>1291100</v>
+        <v>1317600</v>
       </c>
       <c r="G42" s="3">
-        <v>2589500</v>
+        <v>2642600</v>
       </c>
       <c r="H42" s="3">
-        <v>1780100</v>
+        <v>1816500</v>
       </c>
       <c r="I42" s="3">
-        <v>424500</v>
+        <v>433200</v>
       </c>
       <c r="J42" s="3">
-        <v>797000</v>
+        <v>813300</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>3716200</v>
+        <v>3792300</v>
       </c>
       <c r="E43" s="3">
-        <v>2728800</v>
+        <v>2784800</v>
       </c>
       <c r="F43" s="3">
-        <v>1725100</v>
+        <v>1760400</v>
       </c>
       <c r="G43" s="3">
-        <v>1587400</v>
+        <v>1619900</v>
       </c>
       <c r="H43" s="3">
-        <v>2327800</v>
+        <v>2375500</v>
       </c>
       <c r="I43" s="3">
-        <v>720200</v>
+        <v>734900</v>
       </c>
       <c r="J43" s="3">
-        <v>191200</v>
+        <v>195200</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>659500</v>
+        <v>673000</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>37</v>
@@ -1585,142 +1620,142 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2407900</v>
+        <v>2457200</v>
       </c>
       <c r="E45" s="3">
-        <v>6014800</v>
+        <v>6138100</v>
       </c>
       <c r="F45" s="3">
-        <v>3413200</v>
+        <v>3483200</v>
       </c>
       <c r="G45" s="3">
-        <v>755500</v>
+        <v>771000</v>
       </c>
       <c r="H45" s="3">
-        <v>951400</v>
+        <v>970900</v>
       </c>
       <c r="I45" s="3">
-        <v>711900</v>
+        <v>726500</v>
       </c>
       <c r="J45" s="3">
-        <v>617600</v>
+        <v>630300</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>37354400</v>
+        <v>38119900</v>
       </c>
       <c r="E46" s="3">
-        <v>26448500</v>
+        <v>26990400</v>
       </c>
       <c r="F46" s="3">
-        <v>19492700</v>
+        <v>19892100</v>
       </c>
       <c r="G46" s="3">
-        <v>20666900</v>
+        <v>21090400</v>
       </c>
       <c r="H46" s="3">
-        <v>9865000</v>
+        <v>10067100</v>
       </c>
       <c r="I46" s="3">
-        <v>6277000</v>
+        <v>6405700</v>
       </c>
       <c r="J46" s="3">
-        <v>4057400</v>
+        <v>4140500</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25920900</v>
+        <v>26452000</v>
       </c>
       <c r="E47" s="3">
-        <v>22144800</v>
+        <v>22598500</v>
       </c>
       <c r="F47" s="3">
-        <v>17641200</v>
+        <v>18002700</v>
       </c>
       <c r="G47" s="3">
-        <v>7129300</v>
+        <v>7275400</v>
       </c>
       <c r="H47" s="3">
-        <v>3082000</v>
+        <v>3145100</v>
       </c>
       <c r="I47" s="3">
-        <v>311500</v>
+        <v>317900</v>
       </c>
       <c r="J47" s="3">
-        <v>294600</v>
+        <v>300700</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9669500</v>
+        <v>9867600</v>
       </c>
       <c r="E48" s="3">
-        <v>5877100</v>
+        <v>5997500</v>
       </c>
       <c r="F48" s="3">
-        <v>3964100</v>
+        <v>4045400</v>
       </c>
       <c r="G48" s="3">
-        <v>1329100</v>
+        <v>1356300</v>
       </c>
       <c r="H48" s="3">
-        <v>811600</v>
+        <v>828300</v>
       </c>
       <c r="I48" s="3">
-        <v>553800</v>
+        <v>565100</v>
       </c>
       <c r="J48" s="3">
-        <v>358200</v>
+        <v>365500</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>27575600</v>
+        <v>28140600</v>
       </c>
       <c r="E49" s="3">
-        <v>40583100</v>
+        <v>41414700</v>
       </c>
       <c r="F49" s="3">
-        <v>25309200</v>
+        <v>25827800</v>
       </c>
       <c r="G49" s="3">
-        <v>7054500</v>
+        <v>7199100</v>
       </c>
       <c r="H49" s="3">
-        <v>1992200</v>
+        <v>2033100</v>
       </c>
       <c r="I49" s="3">
-        <v>1691100</v>
+        <v>1725700</v>
       </c>
       <c r="J49" s="3">
-        <v>1714800</v>
+        <v>1749900</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1747,7 +1782,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1774,34 +1809,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3771000</v>
+        <v>3848300</v>
       </c>
       <c r="E52" s="3">
-        <v>3053200</v>
+        <v>3115700</v>
       </c>
       <c r="F52" s="3">
-        <v>2050400</v>
+        <v>2092400</v>
       </c>
       <c r="G52" s="3">
-        <v>968000</v>
+        <v>987800</v>
       </c>
       <c r="H52" s="3">
-        <v>471800</v>
+        <v>481400</v>
       </c>
       <c r="I52" s="3">
-        <v>443000</v>
+        <v>452100</v>
       </c>
       <c r="J52" s="3">
-        <v>440800</v>
+        <v>449800</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1828,34 +1863,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>104291000</v>
+        <v>106428000</v>
       </c>
       <c r="E54" s="3">
-        <v>73705700</v>
+        <v>75216000</v>
       </c>
       <c r="F54" s="3">
-        <v>52972200</v>
+        <v>54057600</v>
       </c>
       <c r="G54" s="3">
-        <v>37147800</v>
+        <v>37909000</v>
       </c>
       <c r="H54" s="3">
-        <v>16222600</v>
+        <v>16555000</v>
       </c>
       <c r="I54" s="3">
-        <v>9276400</v>
+        <v>9466500</v>
       </c>
       <c r="J54" s="3">
-        <v>6865800</v>
+        <v>7006400</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1868,7 +1903,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1881,169 +1916,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>290300</v>
+        <v>296200</v>
       </c>
       <c r="E57" s="3">
-        <v>315100</v>
+        <v>321600</v>
       </c>
       <c r="F57" s="3">
-        <v>211700</v>
+        <v>216100</v>
       </c>
       <c r="G57" s="3">
-        <v>134800</v>
+        <v>137600</v>
       </c>
       <c r="H57" s="3">
-        <v>43600</v>
+        <v>44500</v>
       </c>
       <c r="I57" s="3">
-        <v>58200</v>
+        <v>59400</v>
       </c>
       <c r="J57" s="3">
-        <v>109700</v>
+        <v>111900</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>876700</v>
+        <v>894600</v>
       </c>
       <c r="E58" s="3">
-        <v>2166500</v>
+        <v>2210900</v>
       </c>
       <c r="F58" s="3">
-        <v>625900</v>
+        <v>638800</v>
       </c>
       <c r="G58" s="3">
-        <v>289400</v>
+        <v>295300</v>
       </c>
       <c r="H58" s="3">
-        <v>1507200</v>
+        <v>1538100</v>
       </c>
       <c r="I58" s="3">
-        <v>792300</v>
+        <v>808500</v>
       </c>
       <c r="J58" s="3">
-        <v>186600</v>
+        <v>190400</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18583900</v>
+        <v>18964700</v>
       </c>
       <c r="E59" s="3">
-        <v>17987700</v>
+        <v>18356200</v>
       </c>
       <c r="F59" s="3">
-        <v>10705500</v>
+        <v>10924900</v>
       </c>
       <c r="G59" s="3">
-        <v>5345300</v>
+        <v>5454800</v>
       </c>
       <c r="H59" s="3">
-        <v>3885900</v>
+        <v>3965500</v>
       </c>
       <c r="I59" s="3">
-        <v>2639100</v>
+        <v>2693200</v>
       </c>
       <c r="J59" s="3">
-        <v>1412700</v>
+        <v>1441700</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19750800</v>
+        <v>20155600</v>
       </c>
       <c r="E60" s="3">
-        <v>13607000</v>
+        <v>13885800</v>
       </c>
       <c r="F60" s="3">
-        <v>7568000</v>
+        <v>7723100</v>
       </c>
       <c r="G60" s="3">
-        <v>5769500</v>
+        <v>5887700</v>
       </c>
       <c r="H60" s="3">
-        <v>5436800</v>
+        <v>5548200</v>
       </c>
       <c r="I60" s="3">
-        <v>3489600</v>
+        <v>3561100</v>
       </c>
       <c r="J60" s="3">
-        <v>1708900</v>
+        <v>1744000</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17382500</v>
+        <v>17738700</v>
       </c>
       <c r="E61" s="3">
-        <v>11174100</v>
+        <v>11403100</v>
       </c>
       <c r="F61" s="3">
-        <v>7745900</v>
+        <v>7904600</v>
       </c>
       <c r="G61" s="3">
-        <v>7359200</v>
+        <v>7510000</v>
       </c>
       <c r="H61" s="3">
-        <v>4466300</v>
+        <v>4557800</v>
       </c>
       <c r="I61" s="3">
-        <v>4021600</v>
+        <v>4104000</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3250400</v>
+        <v>3317000</v>
       </c>
       <c r="E62" s="3">
-        <v>1787600</v>
+        <v>1824300</v>
       </c>
       <c r="F62" s="3">
-        <v>1316900</v>
+        <v>1343900</v>
       </c>
       <c r="G62" s="3">
-        <v>1030800</v>
+        <v>1051900</v>
       </c>
       <c r="H62" s="3">
-        <v>383400</v>
+        <v>391200</v>
       </c>
       <c r="I62" s="3">
-        <v>158800</v>
+        <v>162100</v>
       </c>
       <c r="J62" s="3">
-        <v>152100</v>
+        <v>155200</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2070,7 +2105,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2097,7 +2132,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2124,34 +2159,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50653400</v>
+        <v>51691400</v>
       </c>
       <c r="E66" s="3">
-        <v>32724800</v>
+        <v>33395400</v>
       </c>
       <c r="F66" s="3">
-        <v>21364800</v>
+        <v>21802600</v>
       </c>
       <c r="G66" s="3">
-        <v>15900900</v>
+        <v>16226700</v>
       </c>
       <c r="H66" s="3">
-        <v>10443300</v>
+        <v>10657300</v>
       </c>
       <c r="I66" s="3">
-        <v>7748100</v>
+        <v>7906800</v>
       </c>
       <c r="J66" s="3">
-        <v>2282100</v>
+        <v>2328800</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2164,7 +2199,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2191,7 +2226,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2218,34 +2253,34 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>436400</v>
+        <v>445400</v>
       </c>
       <c r="E70" s="3">
-        <v>435100</v>
+        <v>444000</v>
       </c>
       <c r="F70" s="3">
-        <v>50900</v>
+        <v>51900</v>
       </c>
       <c r="G70" s="3">
-        <v>95700</v>
+        <v>97700</v>
       </c>
       <c r="H70" s="3">
-        <v>1512600</v>
+        <v>1543600</v>
       </c>
       <c r="I70" s="3">
-        <v>1531800</v>
+        <v>1563200</v>
       </c>
       <c r="J70" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2272,34 +2307,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25649500</v>
+        <v>26175100</v>
       </c>
       <c r="E72" s="3">
-        <v>16290200</v>
+        <v>16624000</v>
       </c>
       <c r="F72" s="3">
-        <v>11795500</v>
+        <v>12037200</v>
       </c>
       <c r="G72" s="3">
-        <v>3840100</v>
+        <v>3918800</v>
       </c>
       <c r="H72" s="3">
-        <v>531800</v>
+        <v>542700</v>
       </c>
       <c r="I72" s="3">
-        <v>-2785600</v>
+        <v>-2842600</v>
       </c>
       <c r="J72" s="3">
-        <v>1984800</v>
+        <v>2025500</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2326,7 +2361,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2353,7 +2388,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2380,34 +2415,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>53201500</v>
+        <v>54291600</v>
       </c>
       <c r="E76" s="3">
-        <v>40545800</v>
+        <v>41376600</v>
       </c>
       <c r="F76" s="3">
-        <v>31556400</v>
+        <v>32203100</v>
       </c>
       <c r="G76" s="3">
-        <v>21151200</v>
+        <v>21584600</v>
       </c>
       <c r="H76" s="3">
-        <v>4266600</v>
+        <v>4354100</v>
       </c>
       <c r="I76" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="J76" s="3">
-        <v>4579300</v>
+        <v>4673100</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2434,12 +2469,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2466,34 +2501,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>9305300</v>
+        <v>9496000</v>
       </c>
       <c r="E81" s="3">
-        <v>6351700</v>
+        <v>6481800</v>
       </c>
       <c r="F81" s="3">
-        <v>10392400</v>
+        <v>10605400</v>
       </c>
       <c r="G81" s="3">
-        <v>3512000</v>
+        <v>3584000</v>
       </c>
       <c r="H81" s="3">
-        <v>3355900</v>
+        <v>3424700</v>
       </c>
       <c r="I81" s="3">
-        <v>1222200</v>
+        <v>1247200</v>
       </c>
       <c r="J81" s="3">
-        <v>614900</v>
+        <v>627500</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2506,34 +2541,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3202400</v>
+        <v>3268000</v>
       </c>
       <c r="E83" s="3">
-        <v>2078500</v>
+        <v>2121100</v>
       </c>
       <c r="F83" s="3">
-        <v>1025000</v>
+        <v>1046000</v>
       </c>
       <c r="G83" s="3">
-        <v>654300</v>
+        <v>667700</v>
       </c>
       <c r="H83" s="3">
-        <v>240500</v>
+        <v>245500</v>
       </c>
       <c r="I83" s="3">
-        <v>136000</v>
+        <v>138800</v>
       </c>
       <c r="J83" s="3">
-        <v>126500</v>
+        <v>129100</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2560,7 +2595,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2587,7 +2622,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2614,7 +2649,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2641,7 +2676,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2668,34 +2703,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18203600</v>
+        <v>18576600</v>
       </c>
       <c r="E89" s="3">
-        <v>11681800</v>
+        <v>11921200</v>
       </c>
       <c r="F89" s="3">
-        <v>8265700</v>
+        <v>8435000</v>
       </c>
       <c r="G89" s="3">
-        <v>5994200</v>
+        <v>6117000</v>
       </c>
       <c r="H89" s="3">
-        <v>3836300</v>
+        <v>3914900</v>
       </c>
       <c r="I89" s="3">
-        <v>2105200</v>
+        <v>2148400</v>
       </c>
       <c r="J89" s="3">
-        <v>1348900</v>
+        <v>1376500</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2708,34 +2743,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4339000</v>
+        <v>-3830300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2551700</v>
+        <v>-1813600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1577200</v>
+        <v>-807100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1120500</v>
+        <v>-707900</v>
       </c>
       <c r="H91" s="3">
-        <v>-694600</v>
+        <v>-487500</v>
       </c>
       <c r="I91" s="3">
-        <v>-364000</v>
+        <v>-155200</v>
       </c>
       <c r="J91" s="3">
-        <v>-315300</v>
+        <v>-111200</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2762,7 +2797,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2789,34 +2824,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12200100</v>
+        <v>-12450100</v>
       </c>
       <c r="E94" s="3">
-        <v>-11396500</v>
+        <v>-11630000</v>
       </c>
       <c r="F94" s="3">
-        <v>-6228900</v>
+        <v>-6356500</v>
       </c>
       <c r="G94" s="3">
-        <v>-7773800</v>
+        <v>-7933100</v>
       </c>
       <c r="H94" s="3">
-        <v>-4798800</v>
+        <v>-4897100</v>
       </c>
       <c r="I94" s="3">
-        <v>79300</v>
+        <v>80900</v>
       </c>
       <c r="J94" s="3">
-        <v>-18200</v>
+        <v>-18600</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2829,7 +2864,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2843,20 +2878,20 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-15100</v>
+        <v>-15400</v>
       </c>
       <c r="H96" s="3">
-        <v>-30200</v>
+        <v>-30900</v>
       </c>
       <c r="I96" s="3">
-        <v>-15000</v>
+        <v>-15300</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2883,7 +2918,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2910,7 +2945,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2937,84 +2972,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2960800</v>
+        <v>3021500</v>
       </c>
       <c r="E100" s="3">
-        <v>4786700</v>
+        <v>4884800</v>
       </c>
       <c r="F100" s="3">
-        <v>-2304500</v>
+        <v>-2351700</v>
       </c>
       <c r="G100" s="3">
-        <v>12724700</v>
+        <v>12985400</v>
       </c>
       <c r="H100" s="3">
-        <v>1361800</v>
+        <v>1389700</v>
       </c>
       <c r="I100" s="3">
-        <v>-204500</v>
+        <v>-208700</v>
       </c>
       <c r="J100" s="3">
-        <v>69100</v>
+        <v>70500</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-882300</v>
+        <v>-900400</v>
       </c>
       <c r="E101" s="3">
-        <v>297000</v>
+        <v>303100</v>
       </c>
       <c r="F101" s="3">
-        <v>67800</v>
+        <v>69200</v>
       </c>
       <c r="G101" s="3">
-        <v>-16300</v>
+        <v>-16600</v>
       </c>
       <c r="H101" s="3">
-        <v>-14100</v>
+        <v>-14400</v>
       </c>
       <c r="I101" s="3">
-        <v>-11100</v>
+        <v>-11300</v>
       </c>
       <c r="J101" s="3">
-        <v>-7900</v>
+        <v>-8000</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8082000</v>
+        <v>8247600</v>
       </c>
       <c r="E102" s="3">
-        <v>5369000</v>
+        <v>5479000</v>
       </c>
       <c r="F102" s="3">
-        <v>-200000</v>
+        <v>-204100</v>
       </c>
       <c r="G102" s="3">
-        <v>10928800</v>
+        <v>11152700</v>
       </c>
       <c r="H102" s="3">
-        <v>385200</v>
+        <v>393100</v>
       </c>
       <c r="I102" s="3">
-        <v>1969000</v>
+        <v>2009300</v>
       </c>
       <c r="J102" s="3">
-        <v>1391900</v>
+        <v>1420400</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/BABA_YR_FIN.xlsx
+++ b/Financials/Yearly/BABA_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B58EC3-2306-41E8-AECF-F001D1B9BB78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="BABA" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,142 +654,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42825</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42460</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42094</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41729</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41364</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40999</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>37142000</v>
+        <v>54069600</v>
       </c>
       <c r="E8" s="3">
-        <v>23489300</v>
+        <v>35908200</v>
       </c>
       <c r="F8" s="3">
-        <v>15010600</v>
+        <v>22709000</v>
       </c>
       <c r="G8" s="3">
-        <v>11309400</v>
+        <v>14512000</v>
       </c>
       <c r="H8" s="3">
-        <v>7792100</v>
+        <v>10933700</v>
       </c>
       <c r="I8" s="3">
-        <v>5122700</v>
+        <v>7533300</v>
       </c>
       <c r="J8" s="3">
+        <v>4952500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2971900</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15767500</v>
+        <v>29282300</v>
       </c>
       <c r="E9" s="3">
-        <v>8700700</v>
+        <v>15243700</v>
       </c>
       <c r="F9" s="3">
-        <v>5098600</v>
+        <v>8411700</v>
       </c>
       <c r="G9" s="3">
-        <v>3537200</v>
+        <v>4929300</v>
       </c>
       <c r="H9" s="3">
-        <v>1984100</v>
+        <v>3419700</v>
       </c>
       <c r="I9" s="3">
-        <v>1442400</v>
+        <v>1918200</v>
       </c>
       <c r="J9" s="3">
+        <v>1394500</v>
+      </c>
+      <c r="K9" s="3">
         <v>972700</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21374500</v>
+        <v>24787300</v>
       </c>
       <c r="E10" s="3">
-        <v>14788600</v>
+        <v>20664400</v>
       </c>
       <c r="F10" s="3">
-        <v>9912000</v>
+        <v>14297400</v>
       </c>
       <c r="G10" s="3">
-        <v>7772200</v>
+        <v>9582700</v>
       </c>
       <c r="H10" s="3">
-        <v>5808000</v>
+        <v>7514000</v>
       </c>
       <c r="I10" s="3">
-        <v>3680300</v>
+        <v>5615100</v>
       </c>
       <c r="J10" s="3">
+        <v>3558000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1999200</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,35 +813,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3376900</v>
+        <v>5371200</v>
       </c>
       <c r="E12" s="3">
-        <v>2531900</v>
+        <v>3264700</v>
       </c>
       <c r="F12" s="3">
-        <v>2046300</v>
+        <v>2447800</v>
       </c>
       <c r="G12" s="3">
-        <v>1581800</v>
+        <v>1978300</v>
       </c>
       <c r="H12" s="3">
-        <v>755900</v>
+        <v>1529200</v>
       </c>
       <c r="I12" s="3">
-        <v>557000</v>
+        <v>730700</v>
       </c>
       <c r="J12" s="3">
+        <v>538500</v>
+      </c>
+      <c r="K12" s="3">
         <v>429900</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,63 +870,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>452400</v>
+        <v>407900</v>
       </c>
       <c r="E14" s="3">
-        <v>442600</v>
+        <v>437300</v>
       </c>
       <c r="F14" s="3">
-        <v>201400</v>
+        <v>427900</v>
       </c>
       <c r="G14" s="3">
-        <v>88200</v>
+        <v>194700</v>
       </c>
       <c r="H14" s="3">
-        <v>24200</v>
+        <v>85200</v>
       </c>
       <c r="I14" s="3">
-        <v>579800</v>
+        <v>23400</v>
       </c>
       <c r="J14" s="3">
+        <v>560600</v>
+      </c>
+      <c r="K14" s="3">
         <v>30600</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1056700</v>
+        <v>1539100</v>
       </c>
       <c r="E15" s="3">
-        <v>760200</v>
+        <v>1021600</v>
       </c>
       <c r="F15" s="3">
-        <v>435000</v>
+        <v>734900</v>
       </c>
       <c r="G15" s="3">
-        <v>310000</v>
+        <v>420500</v>
       </c>
       <c r="H15" s="3">
-        <v>46700</v>
+        <v>299700</v>
       </c>
       <c r="I15" s="3">
-        <v>19300</v>
+        <v>45200</v>
       </c>
       <c r="J15" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K15" s="3">
         <v>23000</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -954,62 +944,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>27115200</v>
+        <v>45879200</v>
       </c>
       <c r="E17" s="3">
-        <v>16672800</v>
+        <v>26214500</v>
       </c>
       <c r="F17" s="3">
-        <v>10825500</v>
+        <v>16119000</v>
       </c>
       <c r="G17" s="3">
-        <v>7938200</v>
+        <v>10465900</v>
       </c>
       <c r="H17" s="3">
-        <v>4111400</v>
+        <v>7674500</v>
       </c>
       <c r="I17" s="3">
-        <v>3563500</v>
+        <v>3974800</v>
       </c>
       <c r="J17" s="3">
+        <v>3445100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2238200</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>10026700</v>
+        <v>8190400</v>
       </c>
       <c r="E18" s="3">
-        <v>6816500</v>
+        <v>9693700</v>
       </c>
       <c r="F18" s="3">
-        <v>4185200</v>
+        <v>6590000</v>
       </c>
       <c r="G18" s="3">
-        <v>3371300</v>
+        <v>4046100</v>
       </c>
       <c r="H18" s="3">
-        <v>3680700</v>
+        <v>3259300</v>
       </c>
       <c r="I18" s="3">
-        <v>1559200</v>
+        <v>3558400</v>
       </c>
       <c r="J18" s="3">
+        <v>1507400</v>
+      </c>
+      <c r="K18" s="3">
         <v>733700</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1021,143 +1018,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>5403300</v>
+        <v>6360000</v>
       </c>
       <c r="E20" s="3">
-        <v>2488800</v>
+        <v>5223800</v>
       </c>
       <c r="F20" s="3">
-        <v>8194300</v>
+        <v>2406200</v>
       </c>
       <c r="G20" s="3">
-        <v>1834300</v>
+        <v>7922100</v>
       </c>
       <c r="H20" s="3">
-        <v>622700</v>
+        <v>1773400</v>
       </c>
       <c r="I20" s="3">
-        <v>174800</v>
+        <v>602000</v>
       </c>
       <c r="J20" s="3">
+        <v>169000</v>
+      </c>
+      <c r="K20" s="3">
         <v>97400</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>18703800</v>
+        <v>19868800</v>
       </c>
       <c r="E21" s="3">
-        <v>11430100</v>
+        <v>18075800</v>
       </c>
       <c r="F21" s="3">
-        <v>13427300</v>
+        <v>11046100</v>
       </c>
       <c r="G21" s="3">
-        <v>5874500</v>
+        <v>12979100</v>
       </c>
       <c r="H21" s="3">
-        <v>4549300</v>
+        <v>5678000</v>
       </c>
       <c r="I21" s="3">
-        <v>1873000</v>
+        <v>4397700</v>
       </c>
       <c r="J21" s="3">
+        <v>1810500</v>
+      </c>
+      <c r="K21" s="3">
         <v>960400</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>529200</v>
+        <v>744700</v>
       </c>
       <c r="E22" s="3">
-        <v>396400</v>
+        <v>511600</v>
       </c>
       <c r="F22" s="3">
-        <v>288800</v>
+        <v>383200</v>
       </c>
       <c r="G22" s="3">
-        <v>408100</v>
+        <v>279200</v>
       </c>
       <c r="H22" s="3">
-        <v>325800</v>
+        <v>394600</v>
       </c>
       <c r="I22" s="3">
-        <v>233300</v>
+        <v>314900</v>
       </c>
       <c r="J22" s="3">
+        <v>225600</v>
+      </c>
+      <c r="K22" s="3">
         <v>10100</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>14900800</v>
+        <v>13805800</v>
       </c>
       <c r="E23" s="3">
-        <v>8908900</v>
+        <v>14405800</v>
       </c>
       <c r="F23" s="3">
-        <v>12090700</v>
+        <v>8613000</v>
       </c>
       <c r="G23" s="3">
-        <v>4797500</v>
+        <v>11689000</v>
       </c>
       <c r="H23" s="3">
-        <v>3977700</v>
+        <v>4638100</v>
       </c>
       <c r="I23" s="3">
-        <v>1500700</v>
+        <v>3845600</v>
       </c>
       <c r="J23" s="3">
+        <v>1450900</v>
+      </c>
+      <c r="K23" s="3">
         <v>821000</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2700900</v>
+        <v>2375000</v>
       </c>
       <c r="E24" s="3">
-        <v>2044500</v>
+        <v>2611200</v>
       </c>
       <c r="F24" s="3">
-        <v>1253900</v>
+        <v>1976600</v>
       </c>
       <c r="G24" s="3">
-        <v>952200</v>
+        <v>1212300</v>
       </c>
       <c r="H24" s="3">
-        <v>474300</v>
+        <v>920600</v>
       </c>
       <c r="I24" s="3">
-        <v>216200</v>
+        <v>458600</v>
       </c>
       <c r="J24" s="3">
+        <v>209100</v>
+      </c>
+      <c r="K24" s="3">
         <v>125000</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1182,63 +1195,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>12199900</v>
+        <v>11430800</v>
       </c>
       <c r="E26" s="3">
-        <v>6864400</v>
+        <v>11794600</v>
       </c>
       <c r="F26" s="3">
-        <v>10836700</v>
+        <v>6636400</v>
       </c>
       <c r="G26" s="3">
-        <v>3845300</v>
+        <v>10476800</v>
       </c>
       <c r="H26" s="3">
-        <v>3503400</v>
+        <v>3717600</v>
       </c>
       <c r="I26" s="3">
-        <v>1284500</v>
+        <v>3387000</v>
       </c>
       <c r="J26" s="3">
+        <v>1241800</v>
+      </c>
+      <c r="K26" s="3">
         <v>696000</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>9496000</v>
+        <v>12568800</v>
       </c>
       <c r="E27" s="3">
-        <v>6481800</v>
+        <v>9180600</v>
       </c>
       <c r="F27" s="3">
-        <v>10605400</v>
+        <v>6266500</v>
       </c>
       <c r="G27" s="3">
-        <v>3584000</v>
+        <v>10253100</v>
       </c>
       <c r="H27" s="3">
-        <v>3424700</v>
+        <v>3464900</v>
       </c>
       <c r="I27" s="3">
-        <v>1247200</v>
+        <v>3310900</v>
       </c>
       <c r="J27" s="3">
+        <v>1205800</v>
+      </c>
+      <c r="K27" s="3">
         <v>627500</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1263,9 +1285,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1290,9 +1315,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1345,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1344,63 +1375,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-5403300</v>
+        <v>-6360000</v>
       </c>
       <c r="E32" s="3">
-        <v>-2488800</v>
+        <v>-5223800</v>
       </c>
       <c r="F32" s="3">
-        <v>-8194300</v>
+        <v>-2406200</v>
       </c>
       <c r="G32" s="3">
-        <v>-1834300</v>
+        <v>-7922100</v>
       </c>
       <c r="H32" s="3">
-        <v>-622700</v>
+        <v>-1773400</v>
       </c>
       <c r="I32" s="3">
-        <v>-174800</v>
+        <v>-602000</v>
       </c>
       <c r="J32" s="3">
+        <v>-169000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-97400</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>9496000</v>
+        <v>12568800</v>
       </c>
       <c r="E33" s="3">
-        <v>6481800</v>
+        <v>9180600</v>
       </c>
       <c r="F33" s="3">
-        <v>10605400</v>
+        <v>6266500</v>
       </c>
       <c r="G33" s="3">
-        <v>3584000</v>
+        <v>10253100</v>
       </c>
       <c r="H33" s="3">
-        <v>3424700</v>
+        <v>3464900</v>
       </c>
       <c r="I33" s="3">
-        <v>1247200</v>
+        <v>3310900</v>
       </c>
       <c r="J33" s="3">
+        <v>1205800</v>
+      </c>
+      <c r="K33" s="3">
         <v>627500</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1425,68 +1465,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>9496000</v>
+        <v>12568800</v>
       </c>
       <c r="E35" s="3">
-        <v>6481800</v>
+        <v>9180600</v>
       </c>
       <c r="F35" s="3">
-        <v>10605400</v>
+        <v>6266500</v>
       </c>
       <c r="G35" s="3">
-        <v>3584000</v>
+        <v>10253100</v>
       </c>
       <c r="H35" s="3">
-        <v>3424700</v>
+        <v>3464900</v>
       </c>
       <c r="I35" s="3">
-        <v>1247200</v>
+        <v>3310900</v>
       </c>
       <c r="J35" s="3">
+        <v>1205800</v>
+      </c>
+      <c r="K35" s="3">
         <v>627500</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42825</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42460</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42094</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41729</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41364</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40999</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1498,8 +1547,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1511,97 +1561,107 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>29579400</v>
+        <v>27257800</v>
       </c>
       <c r="E41" s="3">
-        <v>21331900</v>
+        <v>28596900</v>
       </c>
       <c r="F41" s="3">
-        <v>15852900</v>
+        <v>20623200</v>
       </c>
       <c r="G41" s="3">
-        <v>16056900</v>
+        <v>15326200</v>
       </c>
       <c r="H41" s="3">
-        <v>4904200</v>
+        <v>15523500</v>
       </c>
       <c r="I41" s="3">
-        <v>4511100</v>
+        <v>4741300</v>
       </c>
       <c r="J41" s="3">
+        <v>4361200</v>
+      </c>
+      <c r="K41" s="3">
         <v>2501700</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1617800</v>
+        <v>1892400</v>
       </c>
       <c r="E42" s="3">
-        <v>1048500</v>
+        <v>1564100</v>
       </c>
       <c r="F42" s="3">
-        <v>1317600</v>
+        <v>1013700</v>
       </c>
       <c r="G42" s="3">
-        <v>2642600</v>
+        <v>1273800</v>
       </c>
       <c r="H42" s="3">
-        <v>1816500</v>
+        <v>2554800</v>
       </c>
       <c r="I42" s="3">
-        <v>433200</v>
+        <v>1756200</v>
       </c>
       <c r="J42" s="3">
+        <v>418800</v>
+      </c>
+      <c r="K42" s="3">
         <v>813300</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>3792300</v>
+        <v>4292900</v>
       </c>
       <c r="E43" s="3">
-        <v>2784800</v>
+        <v>3666300</v>
       </c>
       <c r="F43" s="3">
-        <v>1760400</v>
+        <v>2692300</v>
       </c>
       <c r="G43" s="3">
-        <v>1619900</v>
+        <v>1702000</v>
       </c>
       <c r="H43" s="3">
-        <v>2375500</v>
+        <v>1566100</v>
       </c>
       <c r="I43" s="3">
-        <v>734900</v>
+        <v>2296500</v>
       </c>
       <c r="J43" s="3">
+        <v>710500</v>
+      </c>
+      <c r="K43" s="3">
         <v>195200</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>673000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>37</v>
+        <v>1224500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>650700</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>37</v>
@@ -1618,144 +1678,162 @@
       <c r="J44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2457200</v>
+        <v>4111300</v>
       </c>
       <c r="E45" s="3">
-        <v>6138100</v>
+        <v>2375600</v>
       </c>
       <c r="F45" s="3">
-        <v>3483200</v>
+        <v>5934200</v>
       </c>
       <c r="G45" s="3">
-        <v>771000</v>
+        <v>3367500</v>
       </c>
       <c r="H45" s="3">
-        <v>970900</v>
+        <v>745400</v>
       </c>
       <c r="I45" s="3">
-        <v>726500</v>
+        <v>938600</v>
       </c>
       <c r="J45" s="3">
+        <v>702300</v>
+      </c>
+      <c r="K45" s="3">
         <v>630300</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>38119900</v>
+        <v>38778800</v>
       </c>
       <c r="E46" s="3">
-        <v>26990400</v>
+        <v>36853600</v>
       </c>
       <c r="F46" s="3">
-        <v>19892100</v>
+        <v>26093800</v>
       </c>
       <c r="G46" s="3">
-        <v>21090400</v>
+        <v>19231300</v>
       </c>
       <c r="H46" s="3">
-        <v>10067100</v>
+        <v>20389800</v>
       </c>
       <c r="I46" s="3">
-        <v>6405700</v>
+        <v>9732700</v>
       </c>
       <c r="J46" s="3">
+        <v>6192900</v>
+      </c>
+      <c r="K46" s="3">
         <v>4140500</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26452000</v>
+        <v>34656700</v>
       </c>
       <c r="E47" s="3">
-        <v>22598500</v>
+        <v>25573300</v>
       </c>
       <c r="F47" s="3">
-        <v>18002700</v>
+        <v>21847800</v>
       </c>
       <c r="G47" s="3">
-        <v>7275400</v>
+        <v>17404700</v>
       </c>
       <c r="H47" s="3">
-        <v>3145100</v>
+        <v>7033700</v>
       </c>
       <c r="I47" s="3">
-        <v>317900</v>
+        <v>3040600</v>
       </c>
       <c r="J47" s="3">
+        <v>307300</v>
+      </c>
+      <c r="K47" s="3">
         <v>300700</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9867600</v>
+        <v>13204500</v>
       </c>
       <c r="E48" s="3">
-        <v>5997500</v>
+        <v>9539800</v>
       </c>
       <c r="F48" s="3">
-        <v>4045400</v>
+        <v>5798300</v>
       </c>
       <c r="G48" s="3">
-        <v>1356300</v>
+        <v>3911000</v>
       </c>
       <c r="H48" s="3">
-        <v>828300</v>
+        <v>1311300</v>
       </c>
       <c r="I48" s="3">
-        <v>565100</v>
+        <v>800800</v>
       </c>
       <c r="J48" s="3">
+        <v>546400</v>
+      </c>
+      <c r="K48" s="3">
         <v>365500</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28140600</v>
+        <v>47809100</v>
       </c>
       <c r="E49" s="3">
-        <v>41414700</v>
+        <v>27205800</v>
       </c>
       <c r="F49" s="3">
-        <v>25827800</v>
+        <v>40039000</v>
       </c>
       <c r="G49" s="3">
-        <v>7199100</v>
+        <v>24969800</v>
       </c>
       <c r="H49" s="3">
-        <v>2033100</v>
+        <v>6959900</v>
       </c>
       <c r="I49" s="3">
-        <v>1725700</v>
+        <v>1965500</v>
       </c>
       <c r="J49" s="3">
+        <v>1668400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1749900</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1780,9 +1858,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1807,36 +1888,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3848300</v>
+        <v>4020000</v>
       </c>
       <c r="E52" s="3">
-        <v>3115700</v>
+        <v>3720400</v>
       </c>
       <c r="F52" s="3">
-        <v>2092400</v>
+        <v>3012200</v>
       </c>
       <c r="G52" s="3">
-        <v>987800</v>
+        <v>2022900</v>
       </c>
       <c r="H52" s="3">
-        <v>481400</v>
+        <v>955000</v>
       </c>
       <c r="I52" s="3">
-        <v>452100</v>
+        <v>465400</v>
       </c>
       <c r="J52" s="3">
+        <v>437000</v>
+      </c>
+      <c r="K52" s="3">
         <v>449800</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1861,36 +1948,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>106428000</v>
+        <v>138469000</v>
       </c>
       <c r="E54" s="3">
-        <v>75216000</v>
+        <v>102893000</v>
       </c>
       <c r="F54" s="3">
-        <v>54057600</v>
+        <v>72717400</v>
       </c>
       <c r="G54" s="3">
-        <v>37909000</v>
+        <v>52261900</v>
       </c>
       <c r="H54" s="3">
-        <v>16555000</v>
+        <v>36649700</v>
       </c>
       <c r="I54" s="3">
-        <v>9466500</v>
+        <v>16005100</v>
       </c>
       <c r="J54" s="3">
+        <v>9152000</v>
+      </c>
+      <c r="K54" s="3">
         <v>7006400</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1902,8 +1995,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1915,170 +2009,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>296200</v>
+        <v>655700</v>
       </c>
       <c r="E57" s="3">
-        <v>321600</v>
+        <v>286400</v>
       </c>
       <c r="F57" s="3">
-        <v>216100</v>
+        <v>310900</v>
       </c>
       <c r="G57" s="3">
-        <v>137600</v>
+        <v>208900</v>
       </c>
       <c r="H57" s="3">
-        <v>44500</v>
+        <v>133000</v>
       </c>
       <c r="I57" s="3">
-        <v>59400</v>
+        <v>43000</v>
       </c>
       <c r="J57" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K57" s="3">
         <v>111900</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>894600</v>
+        <v>3223400</v>
       </c>
       <c r="E58" s="3">
-        <v>2210900</v>
+        <v>864900</v>
       </c>
       <c r="F58" s="3">
-        <v>638800</v>
+        <v>2137400</v>
       </c>
       <c r="G58" s="3">
-        <v>295300</v>
+        <v>617500</v>
       </c>
       <c r="H58" s="3">
-        <v>1538100</v>
+        <v>285500</v>
       </c>
       <c r="I58" s="3">
-        <v>808500</v>
+        <v>1487000</v>
       </c>
       <c r="J58" s="3">
+        <v>781700</v>
+      </c>
+      <c r="K58" s="3">
         <v>190400</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18964700</v>
+        <v>25917200</v>
       </c>
       <c r="E59" s="3">
-        <v>18356200</v>
+        <v>18334700</v>
       </c>
       <c r="F59" s="3">
-        <v>10924900</v>
+        <v>17746500</v>
       </c>
       <c r="G59" s="3">
-        <v>5454800</v>
+        <v>10562000</v>
       </c>
       <c r="H59" s="3">
-        <v>3965500</v>
+        <v>5273600</v>
       </c>
       <c r="I59" s="3">
-        <v>2693200</v>
+        <v>3833800</v>
       </c>
       <c r="J59" s="3">
+        <v>2603700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1441700</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20155600</v>
+        <v>29796300</v>
       </c>
       <c r="E60" s="3">
-        <v>13885800</v>
+        <v>19486000</v>
       </c>
       <c r="F60" s="3">
-        <v>7723100</v>
+        <v>13424600</v>
       </c>
       <c r="G60" s="3">
-        <v>5887700</v>
+        <v>7466600</v>
       </c>
       <c r="H60" s="3">
-        <v>5548200</v>
+        <v>5692100</v>
       </c>
       <c r="I60" s="3">
-        <v>3561100</v>
+        <v>5363900</v>
       </c>
       <c r="J60" s="3">
+        <v>3442800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1744000</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17738700</v>
+        <v>16045900</v>
       </c>
       <c r="E61" s="3">
-        <v>11403100</v>
+        <v>17149400</v>
       </c>
       <c r="F61" s="3">
-        <v>7904600</v>
+        <v>11024300</v>
       </c>
       <c r="G61" s="3">
-        <v>7510000</v>
+        <v>7642000</v>
       </c>
       <c r="H61" s="3">
-        <v>4557800</v>
+        <v>7260500</v>
       </c>
       <c r="I61" s="3">
-        <v>4104000</v>
+        <v>4406400</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+        <v>3967700</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3317000</v>
+        <v>4328900</v>
       </c>
       <c r="E62" s="3">
-        <v>1824300</v>
+        <v>3206800</v>
       </c>
       <c r="F62" s="3">
-        <v>1343900</v>
+        <v>1763700</v>
       </c>
       <c r="G62" s="3">
-        <v>1051900</v>
+        <v>1299200</v>
       </c>
       <c r="H62" s="3">
-        <v>391200</v>
+        <v>1017000</v>
       </c>
       <c r="I62" s="3">
-        <v>162100</v>
+        <v>378200</v>
       </c>
       <c r="J62" s="3">
+        <v>156700</v>
+      </c>
+      <c r="K62" s="3">
         <v>155200</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2103,9 +2216,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2130,9 +2246,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2157,36 +2276,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51691400</v>
+        <v>66861700</v>
       </c>
       <c r="E66" s="3">
-        <v>33395400</v>
+        <v>49974200</v>
       </c>
       <c r="F66" s="3">
-        <v>21802600</v>
+        <v>32286000</v>
       </c>
       <c r="G66" s="3">
-        <v>16226700</v>
+        <v>21078400</v>
       </c>
       <c r="H66" s="3">
-        <v>10657300</v>
+        <v>15687700</v>
       </c>
       <c r="I66" s="3">
-        <v>7906800</v>
+        <v>10303300</v>
       </c>
       <c r="J66" s="3">
+        <v>7644200</v>
+      </c>
+      <c r="K66" s="3">
         <v>2328800</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2198,8 +2323,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2224,9 +2350,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2251,36 +2380,42 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>445400</v>
+        <v>978400</v>
       </c>
       <c r="E70" s="3">
-        <v>444000</v>
+        <v>430600</v>
       </c>
       <c r="F70" s="3">
-        <v>51900</v>
+        <v>429300</v>
       </c>
       <c r="G70" s="3">
-        <v>97700</v>
+        <v>50200</v>
       </c>
       <c r="H70" s="3">
-        <v>1543600</v>
+        <v>94400</v>
       </c>
       <c r="I70" s="3">
-        <v>1563200</v>
+        <v>1492300</v>
       </c>
       <c r="J70" s="3">
+        <v>1511300</v>
+      </c>
+      <c r="K70" s="3">
         <v>4500</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2305,36 +2440,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26175100</v>
+        <v>37714700</v>
       </c>
       <c r="E72" s="3">
-        <v>16624000</v>
+        <v>25305600</v>
       </c>
       <c r="F72" s="3">
-        <v>12037200</v>
+        <v>16071800</v>
       </c>
       <c r="G72" s="3">
-        <v>3918800</v>
+        <v>11637400</v>
       </c>
       <c r="H72" s="3">
-        <v>542700</v>
+        <v>3788600</v>
       </c>
       <c r="I72" s="3">
-        <v>-2842600</v>
+        <v>524700</v>
       </c>
       <c r="J72" s="3">
+        <v>-2748200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2025500</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2359,9 +2500,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2386,9 +2530,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2413,36 +2560,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>54291600</v>
+        <v>70629000</v>
       </c>
       <c r="E76" s="3">
-        <v>41376600</v>
+        <v>52488100</v>
       </c>
       <c r="F76" s="3">
-        <v>32203100</v>
+        <v>40002100</v>
       </c>
       <c r="G76" s="3">
-        <v>21584600</v>
+        <v>31133300</v>
       </c>
       <c r="H76" s="3">
-        <v>4354100</v>
+        <v>20867600</v>
       </c>
       <c r="I76" s="3">
-        <v>-3600</v>
+        <v>4209500</v>
       </c>
       <c r="J76" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K76" s="3">
         <v>4673100</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2467,68 +2620,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42825</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42460</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42094</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41729</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41364</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40999</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>9496000</v>
+        <v>12568800</v>
       </c>
       <c r="E81" s="3">
-        <v>6481800</v>
+        <v>9180600</v>
       </c>
       <c r="F81" s="3">
-        <v>10605400</v>
+        <v>6266500</v>
       </c>
       <c r="G81" s="3">
-        <v>3584000</v>
+        <v>10253100</v>
       </c>
       <c r="H81" s="3">
-        <v>3424700</v>
+        <v>3464900</v>
       </c>
       <c r="I81" s="3">
-        <v>1247200</v>
+        <v>3310900</v>
       </c>
       <c r="J81" s="3">
+        <v>1205800</v>
+      </c>
+      <c r="K81" s="3">
         <v>627500</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2540,35 +2702,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3268000</v>
+        <v>5320200</v>
       </c>
       <c r="E83" s="3">
-        <v>2121100</v>
+        <v>3159400</v>
       </c>
       <c r="F83" s="3">
-        <v>1046000</v>
+        <v>2050600</v>
       </c>
       <c r="G83" s="3">
-        <v>667700</v>
+        <v>1011200</v>
       </c>
       <c r="H83" s="3">
-        <v>245500</v>
+        <v>645500</v>
       </c>
       <c r="I83" s="3">
-        <v>138800</v>
+        <v>237300</v>
       </c>
       <c r="J83" s="3">
+        <v>134200</v>
+      </c>
+      <c r="K83" s="3">
         <v>129100</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2593,9 +2759,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2620,9 +2789,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2647,9 +2819,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2674,9 +2849,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2701,36 +2879,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18576600</v>
+        <v>21661900</v>
       </c>
       <c r="E89" s="3">
-        <v>11921200</v>
+        <v>18050500</v>
       </c>
       <c r="F89" s="3">
-        <v>8435000</v>
+        <v>11887900</v>
       </c>
       <c r="G89" s="3">
-        <v>6117000</v>
+        <v>8154800</v>
       </c>
       <c r="H89" s="3">
-        <v>3914900</v>
+        <v>5913800</v>
       </c>
       <c r="I89" s="3">
-        <v>2148400</v>
+        <v>3784900</v>
       </c>
       <c r="J89" s="3">
+        <v>2077000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1376500</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2742,35 +2926,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3830300</v>
+        <v>-4639600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1813600</v>
+        <v>-5941500</v>
       </c>
       <c r="F91" s="3">
-        <v>-807100</v>
+        <v>-2568300</v>
       </c>
       <c r="G91" s="3">
-        <v>-707900</v>
+        <v>-780200</v>
       </c>
       <c r="H91" s="3">
-        <v>-487500</v>
+        <v>-684400</v>
       </c>
       <c r="I91" s="3">
-        <v>-155200</v>
+        <v>-471300</v>
       </c>
       <c r="J91" s="3">
+        <v>-150100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-111200</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2795,9 +2983,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2822,36 +3013,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12450100</v>
+        <v>-21674100</v>
       </c>
       <c r="E94" s="3">
-        <v>-11630000</v>
+        <v>-12018500</v>
       </c>
       <c r="F94" s="3">
-        <v>-6356500</v>
+        <v>-11418000</v>
       </c>
       <c r="G94" s="3">
-        <v>-7933100</v>
+        <v>-6145400</v>
       </c>
       <c r="H94" s="3">
-        <v>-4897100</v>
+        <v>-7669600</v>
       </c>
       <c r="I94" s="3">
-        <v>80900</v>
+        <v>-4734400</v>
       </c>
       <c r="J94" s="3">
+        <v>78200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-18600</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2863,8 +3060,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2878,20 +3076,23 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-15400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-30900</v>
+        <v>-14900</v>
       </c>
       <c r="I96" s="3">
-        <v>-15300</v>
+        <v>-29800</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+        <v>-14800</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2916,9 +3117,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2943,9 +3147,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2970,88 +3177,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3021500</v>
+        <v>-1060600</v>
       </c>
       <c r="E100" s="3">
-        <v>4884800</v>
+        <v>2921100</v>
       </c>
       <c r="F100" s="3">
-        <v>-2351700</v>
+        <v>4722500</v>
       </c>
       <c r="G100" s="3">
-        <v>12985400</v>
+        <v>-2273600</v>
       </c>
       <c r="H100" s="3">
-        <v>1389700</v>
+        <v>12554100</v>
       </c>
       <c r="I100" s="3">
-        <v>-208700</v>
+        <v>1343500</v>
       </c>
       <c r="J100" s="3">
+        <v>-201700</v>
+      </c>
+      <c r="K100" s="3">
         <v>70500</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-900400</v>
+        <v>465600</v>
       </c>
       <c r="E101" s="3">
-        <v>303100</v>
+        <v>-870200</v>
       </c>
       <c r="F101" s="3">
-        <v>69200</v>
+        <v>292400</v>
       </c>
       <c r="G101" s="3">
-        <v>-16600</v>
+        <v>66900</v>
       </c>
       <c r="H101" s="3">
-        <v>-14400</v>
+        <v>-16100</v>
       </c>
       <c r="I101" s="3">
-        <v>-11300</v>
+        <v>-13900</v>
       </c>
       <c r="J101" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-8000</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8247600</v>
+        <v>-607200</v>
       </c>
       <c r="E102" s="3">
-        <v>5479000</v>
+        <v>8082900</v>
       </c>
       <c r="F102" s="3">
-        <v>-204100</v>
+        <v>5484800</v>
       </c>
       <c r="G102" s="3">
-        <v>11152700</v>
+        <v>-197300</v>
       </c>
       <c r="H102" s="3">
-        <v>393100</v>
+        <v>10782200</v>
       </c>
       <c r="I102" s="3">
-        <v>2009300</v>
+        <v>380100</v>
       </c>
       <c r="J102" s="3">
+        <v>1942600</v>
+      </c>
+      <c r="K102" s="3">
         <v>1420400</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
